--- a/Чек-лист распре.деленной зоны ответственности в составе команды team2b.xlsx
+++ b/Чек-лист распре.деленной зоны ответственности в составе команды team2b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
   <si>
-    <t xml:space="preserve">Система &lt;название&gt;</t>
+    <t xml:space="preserve">Система “Приложение для управления задачами”</t>
   </si>
   <si>
     <t xml:space="preserve">Список проверок для функционального/регрессионного тестирования</t>
@@ -47,40 +47,13 @@
     <t xml:space="preserve">Предоставил:</t>
   </si>
   <si>
-    <t xml:space="preserve">team2b</t>
+    <t xml:space="preserve">Максим Сардыко</t>
   </si>
   <si>
     <t xml:space="preserve">Ссылки:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/vliplianina/team2b/blob/master/TrainingTask%20-%20Requirements.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" - спецификация требований.</t>
-    </r>
+    <t xml:space="preserve">"https://github.com/vliplianina/team2b/blob/master/TrainingTask%20-%20Requirements.md" - спецификация требований.</t>
   </si>
   <si>
     <t xml:space="preserve">Обозначение результатов тестирования</t>
@@ -131,7 +104,7 @@
     <t xml:space="preserve">дата</t>
   </si>
   <si>
-    <t xml:space="preserve">V1.0.0</t>
+    <t xml:space="preserve">V1.01</t>
   </si>
   <si>
     <t xml:space="preserve">Создание документа</t>
@@ -832,7 +805,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -877,7 +850,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,10 +886,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1009,7 +978,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,14 +1016,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1113,7 +1074,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Bad" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1185,8 +1146,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1194,7 +1155,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
@@ -1322,7 +1283,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" s="20" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1330,31 +1291,31 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1375,7 +1336,7 @@
     <mergeCell ref="A14:D14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://github.com/vliplianina/team2b/blob/master/TrainingTask%20-%20Requirements.md"/>
+    <hyperlink ref="B7" r:id="rId1" display="&quot;https://github.com/vliplianina/team2b/blob/master/TrainingTask%20-%20Requirements.md&quot; - спецификация требований."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1394,7 +1355,7 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -1404,878 +1365,878 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="61.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="61.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.08"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="n">
+      <c r="A4" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="57"/>
+      <c r="C8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="57"/>
+      <c r="C9" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="45"/>
+      <c r="C12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="45"/>
+      <c r="C13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="45"/>
+      <c r="C14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="45"/>
+      <c r="C15" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="45"/>
+      <c r="C16" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="45"/>
+      <c r="C18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="45"/>
+      <c r="C19" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="45"/>
+      <c r="C20" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="45"/>
+      <c r="C21" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="61"/>
+      <c r="C22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="45"/>
+      <c r="C25" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="45"/>
+      <c r="C27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="45"/>
+      <c r="C28" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="45"/>
+      <c r="C29" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="53"/>
+      <c r="C32" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="45"/>
+      <c r="C33" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="45"/>
+      <c r="C34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="65"/>
+      <c r="C35" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="45"/>
+      <c r="C36" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="45"/>
+      <c r="C37" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="60"/>
+      <c r="C44" s="57"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="60"/>
+      <c r="C46" s="57"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="64"/>
+      <c r="C50" s="61"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="60"/>
+      <c r="C51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="60"/>
+      <c r="C64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="66"/>
+      <c r="C68" s="63"/>
     </row>
     <row r="69" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="67" t="s">
+      <c r="B69" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="66"/>
+      <c r="C73" s="63"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="41" t="s">
         <v>141</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="66"/>
+      <c r="C78" s="63"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="41" t="s">
         <v>145</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2293,9 +2254,9 @@
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://github.com/vliplianina/team2b/issues/90"/>
-    <hyperlink ref="C23" r:id="rId2" display="https://github.com/vliplianina/team2b/issues/93"/>
-    <hyperlink ref="C43" r:id="rId3" display="https://github.com/vliplianina/team2b/issues/95"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://github.com/vliplianina/team2b/issues/90 "/>
+    <hyperlink ref="C23" r:id="rId2" display="https://github.com/vliplianina/team2b/issues/93 "/>
+    <hyperlink ref="C43" r:id="rId3" display="https://github.com/vliplianina/team2b/issues/95 "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
